--- a/templates/NHWA_Module_8_10.xlsx
+++ b/templates/NHWA_Module_8_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5257ED43-E7E9-4456-8514-C89BA61823F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304C41AF-C037-453E-9022-8661987BA1FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="zzB/EG68cBLCavBKifLXLU9cHtkByNHDxKw6TGAOmH0Xqt9eEqslmxhiS3RNT5/yg3W/p9o2mkoBv+FWclA2/Q==" workbookSaltValue="AdDK0FT/Ht0UdvlaiqFRnA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2673,27 +2673,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2719,6 +2698,27 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -4149,7 +4149,7 @@
   <dimension ref="A1:BZ250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4177,16 +4177,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -4217,16 +4217,16 @@
       </c>
     </row>
     <row r="2" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="45" t="s">
         <v>761</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4405,27 +4405,27 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="42" t="s">
         <v>759</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="44" t="s">
         <v>772</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="14"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
       <c r="V6" s="4" t="s">
         <v>765</v>
       </c>
@@ -4455,13 +4455,13 @@
       </c>
     </row>
     <row r="7" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="14"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
@@ -4506,11 +4506,11 @@
       <c r="C8" s="16" t="s">
         <v>773</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="14"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -4549,11 +4549,11 @@
       <c r="C9" s="16" t="s">
         <v>774</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="14"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -4592,11 +4592,11 @@
       <c r="C10" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="14"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -4641,11 +4641,11 @@
       <c r="C11" s="16" t="s">
         <v>776</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="14"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -4688,11 +4688,11 @@
       <c r="C12" s="16" t="s">
         <v>777</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="14"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -4782,21 +4782,21 @@
       </c>
     </row>
     <row r="14" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="42" t="s">
         <v>759</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="42" t="s">
         <v>782</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="42" t="s">
         <v>764</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="14"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -4833,13 +4833,13 @@
       </c>
     </row>
     <row r="15" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="14"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -4885,10 +4885,10 @@
         <v>778</v>
       </c>
       <c r="D16" s="17"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="14"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -4933,10 +4933,10 @@
         <v>779</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="14"/>
       <c r="V17" s="4" t="s">
         <v>768</v>
@@ -4974,10 +4974,10 @@
         <v>780</v>
       </c>
       <c r="D18" s="22"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="14"/>
       <c r="V18" s="4" t="s">
         <v>769</v>
@@ -11088,12 +11088,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aRYL8oLz3VA7/6G9+XWnS78DtBBtu1slvlNcwF2Loxvtf6MAFIuNjE43Ggv5gRrrRAVozFkyHYAEEeXGw+iVeA==" saltValue="naW9bcU/Qal8Lm6d5F7BcA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZEPFCggQLFzpwASpyLZXUcyhrmsUrJmRupEjtRHbTa0+8CASIq0dGxKMuxI6S+FyIVHNDWueyw/xNVVa3h9ZXw==" saltValue="d+hR/UscVk6UyfaTa+ZybQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="I4 Q8:R16 F8:P10 H18 I11:P15 F16:H17 G11:H12" name="Range1"/>
     <protectedRange sqref="D16:E16 D10:E12" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E16:H16"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
@@ -11102,19 +11107,18 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E16:H16"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D12" xr:uid="{B0825347-8C23-44F3-A103-0FD47988A44A}">
+  <dataValidations count="3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D12" xr:uid="{B0825347-8C23-44F3-A103-0FD47988A44A}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{A2A9C322-F9D1-4553-AE81-2F9548F457FE}">
       <formula1>YEAR(TODAY())-20</formula1>
       <formula2>YEAR(TODAY())-1</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D10" xr:uid="{9A9801B7-77A1-4F0C-97F5-D0F85086DBD9}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11243,32 +11247,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="45" t="s">
         <v>762</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -11333,33 +11337,33 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="42" t="s">
         <v>759</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="42" t="s">
         <v>782</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="42" t="s">
         <v>764</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="N8" s="9"/>
       <c r="Q8" s="4" t="s">
         <v>757</v>
@@ -11379,11 +11383,11 @@
         <v>781</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="N9" s="9">
         <v>1</v>
       </c>
@@ -11409,11 +11413,11 @@
         <v>783</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="N10" s="9">
         <v>1</v>
       </c>
@@ -11439,11 +11443,11 @@
         <v>784</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="N11" s="9">
         <v>1</v>
       </c>
@@ -11469,11 +11473,11 @@
         <v>785</v>
       </c>
       <c r="D12" s="22"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="N12" s="9">
         <v>1</v>
       </c>
@@ -11499,11 +11503,11 @@
         <v>786</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="N13" s="9">
         <v>1</v>
       </c>
@@ -11537,17 +11541,17 @@
     <protectedRange sqref="D9:D11 D14" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11701,32 +11705,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="45" t="s">
         <v>763</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -11791,31 +11795,31 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="42" t="s">
         <v>759</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="42" t="s">
         <v>782</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="42" t="s">
         <v>764</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
       <c r="N8" s="9"/>
       <c r="Q8" s="4" t="s">
         <v>766</v>
@@ -11835,10 +11839,10 @@
         <v>787</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
       <c r="N9" s="9">
         <v>1</v>
       </c>
@@ -11864,10 +11868,10 @@
         <v>788</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
       <c r="N10" s="9">
         <v>1</v>
       </c>
@@ -11893,10 +11897,10 @@
         <v>789</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
       <c r="N11" s="9">
         <v>1</v>
       </c>
@@ -11922,10 +11926,10 @@
         <v>790</v>
       </c>
       <c r="D12" s="22"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
       <c r="N12" s="9">
         <v>1</v>
       </c>
@@ -11951,10 +11955,10 @@
         <v>791</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
       <c r="N13" s="9">
         <v>1</v>
       </c>
@@ -11980,10 +11984,10 @@
         <v>792</v>
       </c>
       <c r="D14" s="22"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
       <c r="N14" s="9">
         <v>1</v>
       </c>
@@ -12009,10 +12013,10 @@
         <v>793</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
       <c r="N15" s="9">
         <v>1</v>
       </c>
@@ -12038,10 +12042,10 @@
         <v>794</v>
       </c>
       <c r="D16" s="22"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
       <c r="N16" s="9">
         <v>1</v>
       </c>
@@ -12072,12 +12076,6 @@
     <protectedRange sqref="D9:D11 D14" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="14">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:H8"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
@@ -12086,6 +12084,12 @@
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E13:H13"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
